--- a/testSolutions/WaldRealErholung.xlsx
+++ b/testSolutions/WaldRealErholung.xlsx
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1159,7 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1">
@@ -1206,10 +1206,10 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7">
@@ -1253,10 +1253,10 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8">
@@ -1300,10 +1300,10 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9">
@@ -1347,10 +1347,10 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10">
@@ -1397,7 +1397,7 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11">
@@ -1720,6 +1720,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FBF8661AD2E354FAE87329803412157" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16c4dd9e2e32f088242a579a7e24e23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e44a191-92cd-4afa-9687-f5bf1469df19" xmlns:ns4="6b5e8f27-ce12-4388-9f1e-22f0df822b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25951810f8527d332c4c5b5f678f3a0e" ns3:_="" ns4:_="">
     <xsd:import namespace="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
@@ -1942,15 +1951,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1958,6 +1958,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BE6347-A1B0-4693-B31B-94E3A9090FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6089A02C-79BD-4448-AA82-093804821E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1972,14 +1980,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BE6347-A1B0-4693-B31B-94E3A9090FB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/testSolutions/WaldRealErholung.xlsx
+++ b/testSolutions/WaldRealErholung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Code</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Kosten: 64</t>
+  </si>
+  <si>
+    <t>Prüft, dass Umweg über Wald nicht genommen wird, wenn er sich nicht lohnt</t>
   </si>
 </sst>
 </file>
@@ -905,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,6 +1694,9 @@
       <c r="C21">
         <v>12</v>
       </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -1720,12 +1726,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1952,15 +1955,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BE6347-A1B0-4693-B31B-94E3A9090FB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7218213C-1903-4EC3-9DF4-3ED53C669A32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1985,18 +2000,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7218213C-1903-4EC3-9DF4-3ED53C669A32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BE6347-A1B0-4693-B31B-94E3A9090FB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>